--- a/EffortEstimation/PMSheets/PM20_4_19.xlsx
+++ b/EffortEstimation/PMSheets/PM20_4_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easter-release\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754B380-DF62-4AF1-956D-535304DBFDEF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD0574F-F6F9-4E03-9C38-7F22B0BAB3ED}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{B8C8A467-959F-446D-8525-22E81DD4EED5}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{B8C8A467-959F-446D-8525-22E81DD4EED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +522,15 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
@@ -548,7 +557,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -562,14 +574,14 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/EffortEstimation/PMSheets/PM20_4_19.xlsx
+++ b/EffortEstimation/PMSheets/PM20_4_19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easter-release\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD0574F-F6F9-4E03-9C38-7F22B0BAB3ED}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A317793-4DF1-4891-BD19-EB027D779D28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{B8C8A467-959F-446D-8525-22E81DD4EED5}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EffortEstimation/PMSheets/PM20_4_19.xlsx
+++ b/EffortEstimation/PMSheets/PM20_4_19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A317793-4DF1-4891-BD19-EB027D779D28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D57B393-00E7-4D75-A7D3-2565135D0A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{B8C8A467-959F-446D-8525-22E81DD4EED5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{B8C8A467-959F-446D-8525-22E81DD4EED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -88,6 +87,12 @@
   </si>
   <si>
     <t>Clean up master brunch</t>
+  </si>
+  <si>
+    <t>Getting some structure in the effort estimation</t>
+  </si>
+  <si>
+    <t>Haris Jusic</t>
   </si>
 </sst>
 </file>
@@ -449,7 +454,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +588,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>

--- a/EffortEstimation/PMSheets/PM20_4_19.xlsx
+++ b/EffortEstimation/PMSheets/PM20_4_19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D57B393-00E7-4D75-A7D3-2565135D0A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57690CA-F8C0-48CE-BE12-90A8D23E3147}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{B8C8A467-959F-446D-8525-22E81DD4EED5}"/>
   </bookViews>
